--- a/excel_files/Repo_Rate.xlsx
+++ b/excel_files/Repo_Rate.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91978\Desktop\inflation_prediction_project\excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC25759-DD2C-45A5-B4F2-AA22D4F9D7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -934,8 +940,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,14 +1003,24 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{24C2888B-35D4-46D6-8212-189EA2494981}"/>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1042,7 +1058,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1076,6 +1092,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1110,9 +1127,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1285,14 +1303,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B275"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B275"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1328,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1316,7 +1336,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1324,7 +1344,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1332,7 +1352,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1340,7 +1360,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1348,7 +1368,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1356,7 +1376,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1364,7 +1384,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1372,7 +1392,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1380,7 +1400,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1388,7 +1408,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1396,7 +1416,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1404,7 +1424,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1412,7 +1432,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1420,7 +1440,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1428,7 +1448,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1436,7 +1456,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1444,7 +1464,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1452,7 +1472,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1460,7 +1480,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1468,7 +1488,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1476,7 +1496,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1484,7 +1504,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1492,7 +1512,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1500,7 +1520,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1508,7 +1528,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1516,7 +1536,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1524,7 +1544,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1532,7 +1552,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1540,7 +1560,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1548,7 +1568,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1556,7 +1576,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1564,7 +1584,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1572,7 +1592,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1580,7 +1600,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1588,7 +1608,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1596,7 +1616,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1604,7 +1624,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1612,7 +1632,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1620,7 +1640,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1628,7 +1648,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1636,7 +1656,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1644,7 +1664,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1652,7 +1672,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1660,7 +1680,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1668,7 +1688,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1676,7 +1696,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1684,7 +1704,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1692,7 +1712,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1700,7 +1720,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1708,7 +1728,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1716,7 +1736,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1724,7 +1744,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1732,7 +1752,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1740,7 +1760,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1748,7 +1768,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1756,7 +1776,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1764,7 +1784,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1772,7 +1792,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1780,7 +1800,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1788,7 +1808,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1796,7 +1816,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1804,7 +1824,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1812,7 +1832,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -1820,7 +1840,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -1828,7 +1848,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1836,7 +1856,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -1844,7 +1864,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1852,7 +1872,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1860,7 +1880,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -1868,7 +1888,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -1876,7 +1896,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -1884,7 +1904,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -1892,7 +1912,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -1900,7 +1920,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -1908,7 +1928,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -1916,7 +1936,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -1924,7 +1944,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -1932,7 +1952,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -1940,7 +1960,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -1948,7 +1968,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -1956,7 +1976,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -1964,7 +1984,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -1972,7 +1992,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -1980,7 +2000,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -1988,7 +2008,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -1996,7 +2016,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2004,7 +2024,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2012,7 +2032,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -2020,7 +2040,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -2028,7 +2048,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -2036,7 +2056,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2044,7 +2064,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2052,7 +2072,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2060,7 +2080,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2068,7 +2088,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -2076,7 +2096,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -2084,7 +2104,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -2092,7 +2112,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -2100,7 +2120,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -2108,7 +2128,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -2116,7 +2136,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -2124,7 +2144,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -2132,7 +2152,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -2140,7 +2160,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -2148,7 +2168,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -2156,7 +2176,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -2164,7 +2184,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -2172,7 +2192,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -2180,7 +2200,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -2188,7 +2208,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -2196,7 +2216,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -2204,7 +2224,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -2212,7 +2232,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -2220,7 +2240,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -2228,7 +2248,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -2236,7 +2256,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -2244,7 +2264,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -2252,7 +2272,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -2260,7 +2280,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -2268,7 +2288,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -2276,7 +2296,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -2284,7 +2304,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -2292,7 +2312,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -2300,7 +2320,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -2308,7 +2328,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -2316,7 +2336,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -2324,7 +2344,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -2332,7 +2352,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -2340,7 +2360,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -2348,7 +2368,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -2356,7 +2376,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -2364,7 +2384,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -2372,7 +2392,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -2380,7 +2400,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -2388,7 +2408,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -2396,7 +2416,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -2404,7 +2424,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -2412,7 +2432,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -2420,7 +2440,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -2428,7 +2448,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -2436,7 +2456,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -2444,7 +2464,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -2452,7 +2472,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -2460,7 +2480,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -2468,7 +2488,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -2476,7 +2496,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -2484,7 +2504,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -2492,7 +2512,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -2500,7 +2520,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -2508,7 +2528,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -2516,7 +2536,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -2524,7 +2544,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -2532,7 +2552,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -2540,7 +2560,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -2548,7 +2568,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -2556,7 +2576,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -2564,7 +2584,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -2572,7 +2592,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -2580,7 +2600,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -2588,7 +2608,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -2596,7 +2616,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -2604,7 +2624,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -2612,7 +2632,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -2620,7 +2640,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -2628,7 +2648,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -2636,7 +2656,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -2644,7 +2664,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -2652,7 +2672,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -2660,7 +2680,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -2668,7 +2688,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -2676,7 +2696,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -2684,7 +2704,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -2692,7 +2712,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -2700,7 +2720,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -2708,7 +2728,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -2716,7 +2736,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -2724,7 +2744,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -2732,7 +2752,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -2740,7 +2760,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -2748,7 +2768,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -2756,7 +2776,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -2764,7 +2784,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -2772,7 +2792,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -2780,7 +2800,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -2788,7 +2808,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -2796,7 +2816,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -2804,7 +2824,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -2812,7 +2832,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -2820,7 +2840,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -2828,7 +2848,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -2836,7 +2856,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -2844,7 +2864,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -2852,7 +2872,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -2860,7 +2880,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -2868,7 +2888,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -2876,7 +2896,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -2884,7 +2904,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -2892,7 +2912,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -2900,7 +2920,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -2908,7 +2928,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -2916,7 +2936,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -2924,7 +2944,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -2932,7 +2952,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -2940,7 +2960,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -2948,7 +2968,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -2956,7 +2976,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -2964,7 +2984,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -2972,7 +2992,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -2980,7 +3000,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -2988,7 +3008,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -2996,7 +3016,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -3004,7 +3024,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -3012,7 +3032,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -3020,7 +3040,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -3028,7 +3048,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -3036,7 +3056,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -3044,7 +3064,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -3052,7 +3072,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -3060,7 +3080,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -3068,7 +3088,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -3076,7 +3096,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -3084,7 +3104,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -3092,7 +3112,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -3100,7 +3120,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -3108,7 +3128,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -3116,7 +3136,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -3124,7 +3144,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -3132,7 +3152,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -3140,7 +3160,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -3148,7 +3168,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -3156,7 +3176,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -3164,7 +3184,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -3172,7 +3192,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -3180,7 +3200,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -3188,7 +3208,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -3196,7 +3216,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -3204,7 +3224,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -3212,7 +3232,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -3220,7 +3240,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -3228,7 +3248,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -3236,7 +3256,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -3244,7 +3264,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -3252,7 +3272,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -3260,7 +3280,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -3268,7 +3288,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -3276,7 +3296,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -3284,7 +3304,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -3292,7 +3312,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -3300,7 +3320,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -3308,7 +3328,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -3316,7 +3336,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -3324,7 +3344,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -3332,7 +3352,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -3340,7 +3360,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -3348,7 +3368,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -3356,7 +3376,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -3364,7 +3384,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -3372,7 +3392,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -3380,7 +3400,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -3388,7 +3408,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -3396,7 +3416,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -3404,7 +3424,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -3412,7 +3432,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -3420,7 +3440,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -3428,7 +3448,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -3436,7 +3456,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -3444,7 +3464,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -3452,7 +3472,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -3460,7 +3480,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -3468,7 +3488,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -3476,7 +3496,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -3484,7 +3504,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>274</v>
       </c>
